--- a/documentation/0 architecture/develop/standards/message/message-standard.xlsx
+++ b/documentation/0 architecture/develop/standards/message/message-standard.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="600" yWindow="90" windowWidth="13995" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Properties 파일명 표준" sheetId="1" r:id="rId1"/>
-    <sheet name="메시지 표준" sheetId="3" r:id="rId2"/>
+    <sheet name=".properties filename" sheetId="1" r:id="rId1"/>
+    <sheet name="message list" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
   <si>
     <t>_en</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,42 @@
   </si>
   <si>
     <t>윈도우 타이틀 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +204,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,7 +243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,6 +251,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -515,7 +560,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -825,12 +870,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/0 architecture/develop/standards/message/message-standard.xlsx
+++ b/documentation/0 architecture/develop/standards/message/message-standard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="13995" windowHeight="7605" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="13995" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name=".properties filename" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
   <si>
     <t>_en</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,38 @@
   </si>
   <si>
     <t>Reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_ko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}은/는 필수 입력 항목입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}의 입력 형식이 맞지 않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{} type is mismatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{} is required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error.type.mismatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error.required</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,6 +287,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -709,15 +744,25 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>24</v>
@@ -726,15 +771,15 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>24</v>
@@ -743,15 +788,15 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
@@ -760,15 +805,15 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -777,15 +822,15 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
@@ -794,45 +839,35 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -854,13 +889,6 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -870,71 +898,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/0 architecture/develop/standards/message/message-standard.xlsx
+++ b/documentation/0 architecture/develop/standards/message/message-standard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="13995" windowHeight="7545"/>
+    <workbookView xWindow="5325" yWindow="105" windowWidth="17685" windowHeight="9525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name=".properties filename" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bomber</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>bomber:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://docs.djangoproject.com/en/1.3/ref/contrib/messages/</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="109">
   <si>
     <t>_en</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Warn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,27 +211,253 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{}은/는 필수 입력 항목입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{}의 입력 형식이 맞지 않습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{} type is mismatch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{} is required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>error.type.mismatch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>error.required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기화되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반려되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수락하였습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거절하였습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운로드되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Informational messages for the user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A failure did not occur but may be imminent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An action was not successful or some other failure occurred</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Development-related messages that will be ignored (or removed) in a production deployment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An action was successful, e.g. "Your profile was updated successfully"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Created.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Updated.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deleted.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Searched.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canceled.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initialized.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approved.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rejected.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accepted.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Declined.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uploaded.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Downloded.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{} is required.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{} type is mismatch.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}건이 등록되었습니다.</t>
+  </si>
+  <si>
+    <t>{0}건이 수정되었습니다.</t>
+  </si>
+  <si>
+    <t>{0}건이 삭제되었습니다.</t>
+  </si>
+  <si>
+    <t>{0}건이 검색되었습니다.</t>
+  </si>
+  <si>
+    <t>{0}건이 일괄 등록되었습니다.</t>
+  </si>
+  <si>
+    <t>{0}건이 일괄 추출되었습니다.</t>
+  </si>
+  <si>
+    <t>{0}은/는 필수 입력 항목입니다.</t>
+  </si>
+  <si>
+    <t>{0}의 입력 형식이 맞지 않습니다.</t>
+  </si>
+  <si>
+    <t>success.create.completed</t>
+  </si>
+  <si>
+    <t>success.create.completed.with.count</t>
+  </si>
+  <si>
+    <t>success.update.completed</t>
+  </si>
+  <si>
+    <t>success.update.completed.with.count</t>
+  </si>
+  <si>
+    <t>success.delete.completed</t>
+  </si>
+  <si>
+    <t>success.delete.completed.with.count</t>
+  </si>
+  <si>
+    <t>success.search.completed</t>
+  </si>
+  <si>
+    <t>success.search.completed.with.count</t>
+  </si>
+  <si>
+    <t>success.import.completed.with.count</t>
+  </si>
+  <si>
+    <t>success.export.completed.with.count</t>
+  </si>
+  <si>
+    <t>success.canceled</t>
+  </si>
+  <si>
+    <t>success.initialized</t>
+  </si>
+  <si>
+    <t>success.approved</t>
+  </si>
+  <si>
+    <t>success.rejected</t>
+  </si>
+  <si>
+    <t>success.accepted</t>
+  </si>
+  <si>
+    <t>success.declined</t>
+  </si>
+  <si>
+    <t>success.uploaded</t>
+  </si>
+  <si>
+    <t>success.downloaded</t>
+  </si>
+  <si>
+    <t>Created. {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Updated. {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deleted. {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Searched. {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imported. {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exported. {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> = </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +465,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +480,19 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -246,7 +515,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -269,13 +538,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -290,6 +570,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -897,121 +1186,554 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="C4:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>